--- a/docs/LeetCode_Summary.xlsx
+++ b/docs/LeetCode_Summary.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="8030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sorting" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="436">
   <si>
     <t>Two Sum</t>
   </si>
@@ -74,9 +75,6 @@
     <t>maintain access order</t>
   </si>
   <si>
-    <t>OrderedDict/LinkedHashMap</t>
-  </si>
-  <si>
     <t>Hard</t>
   </si>
   <si>
@@ -95,9 +93,6 @@
     <t>2 pointers, stack, DP, heap</t>
   </si>
   <si>
-    <t>comparison - extremes with heap/PriorityQueue</t>
-  </si>
-  <si>
     <t>Decode Ways</t>
   </si>
   <si>
@@ -137,9 +132,6 @@
     <t>Consecutive Numbers Sum</t>
   </si>
   <si>
-    <t>Combinatorics</t>
-  </si>
-  <si>
     <t>References</t>
   </si>
   <si>
@@ -170,9 +162,6 @@
     <t>Verifying an Alien Dictionary</t>
   </si>
   <si>
-    <t>zip, order dict</t>
-  </si>
-  <si>
     <t>Longest Substring Without Repeating Characters</t>
   </si>
   <si>
@@ -399,6 +388,954 @@
   </si>
   <si>
     <t>sort by end time, then add least end time to get max count</t>
+  </si>
+  <si>
+    <t>Design an Expression Tree With Evaluate Function</t>
+  </si>
+  <si>
+    <t>push operands to stack</t>
+  </si>
+  <si>
+    <t>Boundary of Binary Tree</t>
+  </si>
+  <si>
+    <t>pass in left/right boundary flags</t>
+  </si>
+  <si>
+    <t>Online Stock Span</t>
+  </si>
+  <si>
+    <t>monotonic stack</t>
+  </si>
+  <si>
+    <t>maintain peaks</t>
+  </si>
+  <si>
+    <t>Sum of Nodes with Even-Valued Grandparent</t>
+  </si>
+  <si>
+    <t>Remove Boxes</t>
+  </si>
+  <si>
+    <t>recursion is to break by group</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of Deepest Leaves</t>
+  </si>
+  <si>
+    <t>DFS/BFS</t>
+  </si>
+  <si>
+    <t>track level and parent</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/meeting-rooms-ii/discuss/896818/follow-up-question-%22Output-time-interval-for-each-room%22-and-solution</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>preorder traversal to/back JSON</t>
+  </si>
+  <si>
+    <t>OrderedDict/LinkedHashMap, move_to_end, insertion order</t>
+  </si>
+  <si>
+    <t>Maximum Area of a Piece of Cake After Horizontal and Vertical Cuts</t>
+  </si>
+  <si>
+    <t>Minimum Number of Refueling Stops</t>
+  </si>
+  <si>
+    <t>DP, backpack, heap</t>
+  </si>
+  <si>
+    <t>4Sum</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>use cache to remember created nodes</t>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <t>Topological Sort</t>
+  </si>
+  <si>
+    <t>Course Schedule II</t>
+  </si>
+  <si>
+    <t>same as 207 but return topological array inverse</t>
+  </si>
+  <si>
+    <t>direct graph, remove roots first then recurse. Cycle Detection</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>a tree has to have only n-1 edges and only 1 component, no cycles</t>
+  </si>
+  <si>
+    <t>Alien Dictionary</t>
+  </si>
+  <si>
+    <t>use list to figure out orders, then print the direct graph</t>
+  </si>
+  <si>
+    <t>Maximum Depth of N-ary Tree</t>
+  </si>
+  <si>
+    <t>Minimum Height Trees</t>
+  </si>
+  <si>
+    <t>centroids is no more than 2, trim leaves, peer off</t>
+  </si>
+  <si>
+    <t>Number of Connected Components in an Undirected Graph</t>
+  </si>
+  <si>
+    <t>Reconstruct Itinerary</t>
+  </si>
+  <si>
+    <t>Hierholzer's Algorithm - remove visited edges</t>
+  </si>
+  <si>
+    <t>Evaluate Division</t>
+  </si>
+  <si>
+    <t>carry path weights over</t>
+  </si>
+  <si>
+    <t>Find numbers of connected components</t>
+  </si>
+  <si>
+    <t>Connecting Cities With Minimum Cost</t>
+  </si>
+  <si>
+    <t>Shortest Distance from All Buildings</t>
+  </si>
+  <si>
+    <t>start from every 0, sum up all distances at every point. Min distance is the answer</t>
+  </si>
+  <si>
+    <t>Best case</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Worst</t>
+  </si>
+  <si>
+    <t>Stable</t>
+  </si>
+  <si>
+    <t>Time Complexity</t>
+  </si>
+  <si>
+    <t>Space Complexity</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
+  </si>
+  <si>
+    <t>Smooth Sort</t>
+  </si>
+  <si>
+    <t>Heap Sort</t>
+  </si>
+  <si>
+    <t>O(NLogN)</t>
+  </si>
+  <si>
+    <t>O(N)</t>
+  </si>
+  <si>
+    <t>O(1)</t>
+  </si>
+  <si>
+    <t>O(LogN)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>check empty, check order</t>
+  </si>
+  <si>
+    <t>Leftmost Column with at Least a One</t>
+  </si>
+  <si>
+    <t>upper right to lower left, move left if 1 else move down</t>
+  </si>
+  <si>
+    <t>Dot Product of Two Sparse Vectors</t>
+  </si>
+  <si>
+    <t>use map to store sparse data</t>
+  </si>
+  <si>
+    <t>Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>2sum</t>
+  </si>
+  <si>
+    <t>cumulative sum</t>
+  </si>
+  <si>
+    <t>Minimum Remove to Make Valid Parentheses</t>
+  </si>
+  <si>
+    <t>parse</t>
+  </si>
+  <si>
+    <t>use stack find all removal (), then remove them</t>
+  </si>
+  <si>
+    <t>Add Binary</t>
+  </si>
+  <si>
+    <t>bit operation</t>
+  </si>
+  <si>
+    <t>^ for sum and &amp; for carry</t>
+  </si>
+  <si>
+    <t>Vertical Order Traversal of a Binary Tree</t>
+  </si>
+  <si>
+    <t>preorder traversal, then sort columns(keys), then sort rows</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>Continuous Subarray Sum</t>
+  </si>
+  <si>
+    <t>residue for k -&gt; index</t>
+  </si>
+  <si>
+    <t>Design Add and Search Words Data Structure</t>
+  </si>
+  <si>
+    <t>regex</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>Accounts Merge</t>
+  </si>
+  <si>
+    <t>union find</t>
+  </si>
+  <si>
+    <t>Sum of Two Integers</t>
+  </si>
+  <si>
+    <t>bits</t>
+  </si>
+  <si>
+    <t>a^b is sum, a&amp; b &lt;&lt; 1 is carry</t>
+  </si>
+  <si>
+    <t>Read N Characters Given Read4 II - Call multiple times</t>
+  </si>
+  <si>
+    <t>use cache</t>
+  </si>
+  <si>
+    <t>Read N Characters Given Read4</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Convert Binary Search Tree to Sorted Doubly Linked List</t>
+  </si>
+  <si>
+    <t>inorder</t>
+  </si>
+  <si>
+    <t>tree to dll, use dummy node</t>
+  </si>
+  <si>
+    <t>Range Sum of BST</t>
+  </si>
+  <si>
+    <t>&gt;low go left, &lt;high go right, in this order</t>
+  </si>
+  <si>
+    <t>andom Pick with Weight</t>
+  </si>
+  <si>
+    <t>scale cumu to max 1, then bisect random to return index</t>
+  </si>
+  <si>
+    <t>append if no overlap, or take max of endings</t>
+  </si>
+  <si>
+    <t>Exclusive Time of Functions</t>
+  </si>
+  <si>
+    <t>track current time and update parent</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>First Bad Version</t>
+  </si>
+  <si>
+    <t>binary search</t>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+  </si>
+  <si>
+    <t>minimize multiplication</t>
+  </si>
+  <si>
+    <t>Interval List Intersections</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>combinatorics</t>
+  </si>
+  <si>
+    <t>Insert into a Sorted Circular Linked List</t>
+  </si>
+  <si>
+    <t>Valid Number</t>
+  </si>
+  <si>
+    <t>fsm</t>
+  </si>
+  <si>
+    <t>use input find transition to get new state</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value</t>
+  </si>
+  <si>
+    <t>dfs</t>
+  </si>
+  <si>
+    <t>search left if t &lt;val else search right, track history</t>
+  </si>
+  <si>
+    <t>intersection=max(left), min(right), move on min end</t>
+  </si>
+  <si>
+    <t>either find middle or between min and max. keep min/max next to each other.</t>
+  </si>
+  <si>
+    <t>find first nonincreasing from right, swap it with first larger from right, reverse/sort after</t>
+  </si>
+  <si>
+    <t>Task Scheduler with cooldown</t>
+  </si>
+  <si>
+    <t>(n+1) per group with max(freq) groups, plus last not full group</t>
+  </si>
+  <si>
+    <t>Group Shifted Strings</t>
+  </si>
+  <si>
+    <t>hash</t>
+  </si>
+  <si>
+    <t>use hash &amp; dict to avoid multiple lookup</t>
+  </si>
+  <si>
+    <t>Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>left_most prefetch right tree for nodes in stack, then return this node value</t>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>search right then left, add only when depth=return size</t>
+  </si>
+  <si>
+    <t>2 pointers, move shorter side, track max and diff</t>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>keep track left and right path length</t>
+  </si>
+  <si>
+    <t>Making A Large Island</t>
+  </si>
+  <si>
+    <t>Design Browser History</t>
+  </si>
+  <si>
+    <t>pointer</t>
+  </si>
+  <si>
+    <t>class maintain position with pointer</t>
+  </si>
+  <si>
+    <t>mark islands by ids, go through coast collect unique islands</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>work backward on nums1</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Most K Distinct Characters</t>
+  </si>
+  <si>
+    <t>if has &gt;K chars, move left pointer, otherwise, keep move right pointer</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Tree III</t>
+  </si>
+  <si>
+    <t>follow parent, first in cache is LCA, stop at None</t>
+  </si>
+  <si>
+    <t>Expression Add Operators</t>
+  </si>
+  <si>
+    <t>carry left value and last term for *</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Tree</t>
+  </si>
+  <si>
+    <t>if both left and right found, return current, else left or right</t>
+  </si>
+  <si>
+    <t>Random Pick Index</t>
+  </si>
+  <si>
+    <t>randrange(size) after grouping by values</t>
+  </si>
+  <si>
+    <t>Kth Missing Positive Number</t>
+  </si>
+  <si>
+    <t>number of missing ints in [1, 2, ....] is arr[m] - m - 1</t>
+  </si>
+  <si>
+    <t>Robot Room Cleaner</t>
+  </si>
+  <si>
+    <t>dfs, backout, turn right</t>
+  </si>
+  <si>
+    <t>Nested List Weight Sum</t>
+  </si>
+  <si>
+    <t>carry depth and multiply it</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones III</t>
+  </si>
+  <si>
+    <t>keep window size K with 1-a[i], return right - left + 1</t>
+  </si>
+  <si>
+    <t>Word Break II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loop on word list, cache result </t>
+  </si>
+  <si>
+    <t>Divide Two Integers</t>
+  </si>
+  <si>
+    <t>long division + 1 corner case</t>
+  </si>
+  <si>
+    <t>Largest BST Subtree</t>
+  </si>
+  <si>
+    <t>maintain left max, right min, and node count</t>
+  </si>
+  <si>
+    <t>Palindrome Permutation</t>
+  </si>
+  <si>
+    <t>counting</t>
+  </si>
+  <si>
+    <t>there is at most one odd count of letters in the string</t>
+  </si>
+  <si>
+    <t>Regular Expression Matching</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/wildcard-matching/discuss/138878/Finite-state-machine-with-Python-and-dictionary.-13-lines-O(p%2Bs)-time</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/regular-expression-matching/discuss/295184/20-line-state-machine-solution-no-dp-beats-99.7</t>
+  </si>
+  <si>
+    <t>Wildcard Matching</t>
+  </si>
+  <si>
+    <t>mark * position and use backtrack - skip and not skip *</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-number/discuss/1054071/C-Efficient-DFAfinite-state-machine-guaranteed-O(n)</t>
+  </si>
+  <si>
+    <t>44, 65</t>
+  </si>
+  <si>
+    <t>10, 65</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/automata_theory/constructing_fa_from_re.htm</t>
+  </si>
+  <si>
+    <t>Find First and Last Position of Element in Sorted Array</t>
+  </si>
+  <si>
+    <t>bisect</t>
+  </si>
+  <si>
+    <t>2 bs on left and right, right mid +1, then move to +/-1</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from String</t>
+  </si>
+  <si>
+    <t>parse parent, then recursion to children</t>
+  </si>
+  <si>
+    <t>Friends Of Appropriate Ages</t>
+  </si>
+  <si>
+    <t>shrink array by counts, shorten loop by upper bound</t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number</t>
+  </si>
+  <si>
+    <t>Strobogrammatic Number II</t>
+  </si>
+  <si>
+    <t>start from center(odd or even), iterate all 0, 1, 6, 8, 9</t>
+  </si>
+  <si>
+    <t>Maximum Swap</t>
+  </si>
+  <si>
+    <t>use cache for last index for values, then search from 9 down to value</t>
+  </si>
+  <si>
+    <t>Find All Anagrams in a String</t>
+  </si>
+  <si>
+    <t>binary search find x position i, narrow i-k to i+k</t>
+  </si>
+  <si>
+    <t>Find K Closest Elements</t>
+  </si>
+  <si>
+    <t>use counter to compare anagrams, update counters in sliding window</t>
+  </si>
+  <si>
+    <t>All Nodes Distance K in Binary Tree</t>
+  </si>
+  <si>
+    <t>Remove Linked List Elements</t>
+  </si>
+  <si>
+    <t>use dummy to remove head if needed</t>
+  </si>
+  <si>
+    <t>Remove Sub-Folders from the Filesystem</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>Palindromic Substrings</t>
+  </si>
+  <si>
+    <t>Manacher's algorithm is O(n)</t>
+  </si>
+  <si>
+    <t>blow from center for all char for odd and even palindromes</t>
+  </si>
+  <si>
+    <t>Balance a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>rotate</t>
+  </si>
+  <si>
+    <t>balance tree with rotation; a quicker way is binary search on inorder list</t>
+  </si>
+  <si>
+    <t>Simplify Path</t>
+  </si>
+  <si>
+    <t>split / and save it to stack</t>
+  </si>
+  <si>
+    <t>Diagonal Traverse</t>
+  </si>
+  <si>
+    <t>manage diagonal level shift</t>
+  </si>
+  <si>
+    <t>Add Bold Tag in String</t>
+  </si>
+  <si>
+    <t>track latest bold_end index</t>
+  </si>
+  <si>
+    <t>String to Integer (atoi)</t>
+  </si>
+  <si>
+    <t>Remove All Adjacent Duplicates in String II</t>
+  </si>
+  <si>
+    <t>Buildings With an Ocean View</t>
+  </si>
+  <si>
+    <t>from back, add new max</t>
+  </si>
+  <si>
+    <t>Range Sum Query 2D - Immutable</t>
+  </si>
+  <si>
+    <t>cache cumu sum</t>
+  </si>
+  <si>
+    <t>Check Completeness of a Binary Tree</t>
+  </si>
+  <si>
+    <t>BFS remember first null, return false if seeing 2nd</t>
+  </si>
+  <si>
+    <t>Multiply Strings</t>
+  </si>
+  <si>
+    <t>accumulate i+j+1, strip left 0's</t>
+  </si>
+  <si>
+    <t>Missing Ranges</t>
+  </si>
+  <si>
+    <t>presum</t>
+  </si>
+  <si>
+    <t>loop lower and array, then upper, add num or range</t>
+  </si>
+  <si>
+    <t>Squares of a Sorted Array</t>
+  </si>
+  <si>
+    <t>break to negatives and other, merge after square</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>This can be O(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS on each row and count on less than mid, </t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>sort by count</t>
+  </si>
+  <si>
+    <t>Monotonic Array</t>
+  </si>
+  <si>
+    <t>assume true for equal cases</t>
+  </si>
+  <si>
+    <t>Sparse Matrix Multiplication</t>
+  </si>
+  <si>
+    <t>use [(row, col, value)] to model sparse matrix</t>
+  </si>
+  <si>
+    <t>Minimum Add to Make Parentheses Valid</t>
+  </si>
+  <si>
+    <t>track ( #, if -1 update answer, return left # + answer</t>
+  </si>
+  <si>
+    <t>stack works too</t>
+  </si>
+  <si>
+    <t>Maximum Difference Between Node and Ancestor</t>
+  </si>
+  <si>
+    <t>array's similar question</t>
+  </si>
+  <si>
+    <t>dfs with min max, and update max diff at each node</t>
+  </si>
+  <si>
+    <t>Previous Permutation With One Swap</t>
+  </si>
+  <si>
+    <t>same as 865</t>
+  </si>
+  <si>
+    <t>Smallest Subtree with all the Deepest Nodes</t>
+  </si>
+  <si>
+    <t>Lowest Common Ancestor of a Binary Tree IV</t>
+  </si>
+  <si>
+    <t>Use given set as filter to bubble up</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree-iv/discuss/957725/Python-Euler-Path-with-picture</t>
+  </si>
+  <si>
+    <t>find first peak from right, then find highest on right below this height</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>merge pairs</t>
+  </si>
+  <si>
+    <t>Stickers to Spell Word</t>
+  </si>
+  <si>
+    <t>apply stickers to target results a tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Vertical Order Traversal</t>
+  </si>
+  <si>
+    <t>carry level as column number, add to dict</t>
+  </si>
+  <si>
+    <t>Maximum Sum of 3 Non-Overlapping Subarrays</t>
+  </si>
+  <si>
+    <t>sum of sliding window of size k, convert it to a simpler problem</t>
+  </si>
+  <si>
+    <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>mark 0 index for swapping</t>
+  </si>
+  <si>
+    <t>Remove All Adjacent Duplicates In String</t>
+  </si>
+  <si>
+    <t>if c == stack[-1], pop(), otherwise append©</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+  </si>
+  <si>
+    <t>backtrack</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>4 cases</t>
+  </si>
+  <si>
+    <t>Subsets</t>
+  </si>
+  <si>
+    <t>for n in nums, add to collections starting with empty set</t>
+  </si>
+  <si>
+    <t>Number of Music Playlists</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>Number of Subsequences That Satisfy the Given Sum Condition</t>
+  </si>
+  <si>
+    <t>sort, then count powersets</t>
+  </si>
+  <si>
+    <t>Find Largest Value in Each Tree Row</t>
+  </si>
+  <si>
+    <t>Valid Parenthesis String</t>
+  </si>
+  <si>
+    <t>2 counts for min/max of open (</t>
+  </si>
+  <si>
+    <t>Open the Lock</t>
+  </si>
+  <si>
+    <t>rotates generate child nodes</t>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>weave in new nodes, then copy randoms, delete old nodes</t>
+  </si>
+  <si>
+    <t>Contiguous Array</t>
+  </si>
+  <si>
+    <t>use hashmap to record history cumu</t>
+  </si>
+  <si>
+    <t>Intersection of Three Sorted Arrays</t>
+  </si>
+  <si>
+    <t>move smallest pointers among 3</t>
+  </si>
+  <si>
+    <t>Max Area of Island</t>
+  </si>
+  <si>
+    <t>Toeplitz Matrix</t>
+  </si>
+  <si>
+    <t>diagonals are grouped by row-col</t>
+  </si>
+  <si>
+    <t>Spiral Matrix III</t>
+  </si>
+  <si>
+    <t>Maximum Sum Circular Subarray</t>
+  </si>
+  <si>
+    <t>circular</t>
+  </si>
+  <si>
+    <t>if the total is not worth to keep, start a new total</t>
+  </si>
+  <si>
+    <t>Kadane's algorithm</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>matrix and [*matrix.pop(0)] + self.spiralOrder([*zip(*matrix)][::-1])</t>
+  </si>
+  <si>
+    <t>remove top row and then rotate the matrix</t>
+  </si>
+  <si>
+    <t>Spiral Matrix II</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/8421337/rotating-a-two-dimensional-array-in-python</t>
+  </si>
+  <si>
+    <t>Longest Increasing Path in a Matrix</t>
+  </si>
+  <si>
+    <t>or DP, faster, shorter</t>
+  </si>
+  <si>
+    <t>go 4 directions, cache</t>
+  </si>
+  <si>
+    <t>Find Pivot Index</t>
+  </si>
+  <si>
+    <t>Maximum Average Subtree</t>
+  </si>
+  <si>
+    <t>DFS return sum and count for recursion</t>
+  </si>
+  <si>
+    <t>Custom Sort String</t>
+  </si>
+  <si>
+    <t>count T, then write in S order, finally append rest</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>if a[i] &gt; a[i+1] return I, else return len-1</t>
+  </si>
+  <si>
+    <t>Basic Calculator III</t>
+  </si>
+  <si>
+    <t>has +-*/ and ()</t>
+  </si>
+  <si>
+    <t>Basic Calculator</t>
+  </si>
+  <si>
+    <t>has +- and ()</t>
+  </si>
+  <si>
+    <t>Basic Calculator II</t>
+  </si>
+  <si>
+    <t>has +-*/</t>
+  </si>
+  <si>
+    <t>Basic Calculator IV</t>
+  </si>
+  <si>
+    <t>not for fb</t>
+  </si>
+  <si>
+    <t>Daily Temperatures</t>
+  </si>
+  <si>
+    <t>Is Graph Bipartite?</t>
+  </si>
+  <si>
+    <t>stack traversal and color node alternatively</t>
+  </si>
+  <si>
+    <t>Missing Element in Sorted Array</t>
+  </si>
+  <si>
+    <t>num[i] - i is the number of missings</t>
+  </si>
+  <si>
+    <t>bisection</t>
   </si>
 </sst>
 </file>
@@ -429,7 +1366,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,7 +1381,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,18 +1434,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -747,28 +1753,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F186" sqref="F186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="42.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="2"/>
-    <col min="4" max="4" width="19.7265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="52.08984375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.6328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.7265625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="10.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,7 +1785,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -791,13 +1797,13 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -820,7 +1826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>146</v>
       </c>
@@ -837,7 +1843,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
@@ -846,61 +1852,61 @@
         <v>432460</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>460</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H4" s="2">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="H5" s="2">
         <v>407</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -909,89 +1915,89 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>200</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="H8" s="2">
         <v>415</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>56</v>
       </c>
       <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F9" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>829</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -1000,32 +2006,32 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>238</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -1034,355 +2040,358 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>953</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>5</v>
       </c>
       <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="H16" s="2">
         <v>409</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>409</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1335</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H18" s="2">
         <v>1105</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>206</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1396</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1041</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>253</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>221</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>273</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>380</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>973</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>415</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H30" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>2</v>
@@ -1391,18 +2400,18 @@
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -1411,187 +2420,2866 @@
         <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>295</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>139</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1192</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>225</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H38" s="2">
         <v>232</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>232</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H39" s="2">
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>208</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>646</v>
       </c>
       <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>1628</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="2" t="s">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>545</v>
+      </c>
+      <c r="B43" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>901</v>
+      </c>
+      <c r="B44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>1315</v>
+      </c>
+      <c r="B45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>546</v>
+      </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>1123</v>
+      </c>
+      <c r="B47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1676</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>865</v>
+      </c>
+      <c r="B48" t="s">
+        <v>361</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>1676</v>
+      </c>
+      <c r="B49" t="s">
+        <v>362</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>297</v>
+      </c>
+      <c r="B50" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>1465</v>
+      </c>
+      <c r="B51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>871</v>
+      </c>
+      <c r="B52" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>133</v>
+      </c>
+      <c r="B54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>207</v>
+      </c>
+      <c r="B55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H55" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>210</v>
+      </c>
+      <c r="B56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H56" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>261</v>
+      </c>
+      <c r="B57" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H57" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>269</v>
+      </c>
+      <c r="B58" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>559</v>
+      </c>
+      <c r="B59" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>310</v>
+      </c>
+      <c r="B60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>323</v>
+      </c>
+      <c r="B61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>332</v>
+      </c>
+      <c r="B62" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>399</v>
+      </c>
+      <c r="B63" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>1135</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>317</v>
+      </c>
+      <c r="B65" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>1428</v>
+      </c>
+      <c r="B66" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>1570</v>
+      </c>
+      <c r="B67" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>560</v>
+      </c>
+      <c r="B68" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>1249</v>
+      </c>
+      <c r="B69" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>987</v>
+      </c>
+      <c r="B71" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>124</v>
+      </c>
+      <c r="B72" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H72" s="2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>523</v>
+      </c>
+      <c r="B73" t="s">
+        <v>197</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H73" s="2">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>211</v>
+      </c>
+      <c r="B74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>721</v>
+      </c>
+      <c r="B75" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>371</v>
+      </c>
+      <c r="B76" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>158</v>
+      </c>
+      <c r="B77" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>125</v>
+      </c>
+      <c r="B79" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>426</v>
+      </c>
+      <c r="B80" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>938</v>
+      </c>
+      <c r="B81" t="s">
+        <v>214</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>528</v>
+      </c>
+      <c r="B82" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>636</v>
+      </c>
+      <c r="B83" t="s">
+        <v>219</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>215</v>
+      </c>
+      <c r="B84" t="s">
+        <v>221</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>278</v>
+      </c>
+      <c r="B85" t="s">
+        <v>223</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>50</v>
+      </c>
+      <c r="B86" t="s">
+        <v>225</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>986</v>
+      </c>
+      <c r="B87" t="s">
+        <v>227</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>708</v>
+      </c>
+      <c r="B88" t="s">
+        <v>230</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>65</v>
+      </c>
+      <c r="B89" t="s">
+        <v>231</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>31</v>
+      </c>
+      <c r="B90" t="s">
+        <v>234</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>270</v>
+      </c>
+      <c r="B91" t="s">
+        <v>235</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>621</v>
+      </c>
+      <c r="B92" t="s">
+        <v>241</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>249</v>
+      </c>
+      <c r="B93" t="s">
+        <v>243</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>173</v>
+      </c>
+      <c r="B94" t="s">
+        <v>246</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>199</v>
+      </c>
+      <c r="B95" t="s">
+        <v>248</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>543</v>
+      </c>
+      <c r="B96" t="s">
+        <v>251</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>827</v>
+      </c>
+      <c r="B97" t="s">
+        <v>253</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>1472</v>
+      </c>
+      <c r="B98" t="s">
+        <v>254</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>827</v>
+      </c>
+      <c r="B99" t="s">
+        <v>253</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>88</v>
+      </c>
+      <c r="B100" t="s">
+        <v>258</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>340</v>
+      </c>
+      <c r="B101" t="s">
+        <v>260</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>1650</v>
+      </c>
+      <c r="B102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>282</v>
+      </c>
+      <c r="B103" t="s">
+        <v>264</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>236</v>
+      </c>
+      <c r="B104" t="s">
+        <v>266</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H104" s="2">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>398</v>
+      </c>
+      <c r="B105" t="s">
+        <v>268</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>1539</v>
+      </c>
+      <c r="B106" t="s">
+        <v>270</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>489</v>
+      </c>
+      <c r="B107" t="s">
+        <v>272</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>339</v>
+      </c>
+      <c r="B108" t="s">
+        <v>274</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B109" t="s">
+        <v>276</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>140</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>29</v>
+      </c>
+      <c r="B111" t="s">
+        <v>280</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>333</v>
+      </c>
+      <c r="B112" t="s">
+        <v>282</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>266</v>
+      </c>
+      <c r="B113" t="s">
+        <v>284</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
+        <v>287</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H114" s="2">
+        <v>44</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>44</v>
+      </c>
+      <c r="B115" t="s">
+        <v>290</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>34</v>
+      </c>
+      <c r="B116" t="s">
+        <v>296</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>536</v>
+      </c>
+      <c r="B117" t="s">
+        <v>299</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>825</v>
+      </c>
+      <c r="B118" t="s">
+        <v>301</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>246</v>
+      </c>
+      <c r="B119" t="s">
+        <v>303</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>247</v>
+      </c>
+      <c r="B120" t="s">
+        <v>304</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>670</v>
+      </c>
+      <c r="B121" t="s">
+        <v>306</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>438</v>
+      </c>
+      <c r="B122" t="s">
+        <v>308</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>658</v>
+      </c>
+      <c r="B123" t="s">
+        <v>310</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>863</v>
+      </c>
+      <c r="B124" t="s">
+        <v>312</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>203</v>
+      </c>
+      <c r="B125" t="s">
+        <v>313</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>1233</v>
+      </c>
+      <c r="B126" t="s">
+        <v>315</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>647</v>
+      </c>
+      <c r="B127" t="s">
+        <v>317</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I127" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>1382</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>71</v>
+      </c>
+      <c r="B129" t="s">
+        <v>323</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>498</v>
+      </c>
+      <c r="B130" t="s">
+        <v>325</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>616</v>
+      </c>
+      <c r="B131" t="s">
+        <v>327</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>329</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>1209</v>
+      </c>
+      <c r="B133" t="s">
+        <v>330</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>1762</v>
+      </c>
+      <c r="B134" t="s">
+        <v>331</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>304</v>
+      </c>
+      <c r="B135" t="s">
+        <v>333</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>958</v>
+      </c>
+      <c r="B136" t="s">
+        <v>335</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>43</v>
+      </c>
+      <c r="B137" t="s">
+        <v>337</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>163</v>
+      </c>
+      <c r="B138" t="s">
+        <v>339</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>977</v>
+      </c>
+      <c r="B139" t="s">
+        <v>342</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>378</v>
+      </c>
+      <c r="B140" t="s">
+        <v>344</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>347</v>
+      </c>
+      <c r="B141" t="s">
+        <v>347</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>896</v>
+      </c>
+      <c r="B142" t="s">
+        <v>349</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>311</v>
+      </c>
+      <c r="B143" t="s">
+        <v>351</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>921</v>
+      </c>
+      <c r="B144" t="s">
+        <v>353</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>1026</v>
+      </c>
+      <c r="B145" t="s">
+        <v>356</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>1053</v>
+      </c>
+      <c r="B146" t="s">
+        <v>359</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>23</v>
+      </c>
+      <c r="B147" t="s">
+        <v>366</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>691</v>
+      </c>
+      <c r="B148" t="s">
+        <v>368</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>314</v>
+      </c>
+      <c r="B149" t="s">
+        <v>370</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>689</v>
+      </c>
+      <c r="B150" t="s">
+        <v>372</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>283</v>
+      </c>
+      <c r="B151" t="s">
+        <v>374</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>1047</v>
+      </c>
+      <c r="B152" t="s">
+        <v>376</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>39</v>
+      </c>
+      <c r="B153" t="s">
+        <v>378</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>33</v>
+      </c>
+      <c r="B154" t="s">
+        <v>380</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>78</v>
+      </c>
+      <c r="B155" t="s">
+        <v>382</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>920</v>
+      </c>
+      <c r="B156" t="s">
+        <v>384</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>1498</v>
+      </c>
+      <c r="B157" t="s">
+        <v>386</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>515</v>
+      </c>
+      <c r="B158" t="s">
+        <v>388</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>678</v>
+      </c>
+      <c r="B159" t="s">
+        <v>389</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>752</v>
+      </c>
+      <c r="B160" t="s">
+        <v>391</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>138</v>
+      </c>
+      <c r="B161" t="s">
+        <v>393</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>525</v>
+      </c>
+      <c r="B162" t="s">
+        <v>395</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>1213</v>
+      </c>
+      <c r="B163" t="s">
+        <v>397</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>695</v>
+      </c>
+      <c r="B164" t="s">
+        <v>399</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>766</v>
+      </c>
+      <c r="B165" t="s">
+        <v>400</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>885</v>
+      </c>
+      <c r="B166" t="s">
+        <v>402</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>918</v>
+      </c>
+      <c r="B167" t="s">
+        <v>403</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H167" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>53</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H168" s="2">
+        <v>918</v>
+      </c>
+      <c r="I168" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>54</v>
+      </c>
+      <c r="B169" t="s">
+        <v>407</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>59</v>
+      </c>
+      <c r="B170" t="s">
+        <v>410</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>329</v>
+      </c>
+      <c r="B171" t="s">
+        <v>412</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>724</v>
+      </c>
+      <c r="B172" t="s">
+        <v>415</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>1120</v>
+      </c>
+      <c r="B173" t="s">
+        <v>416</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>791</v>
+      </c>
+      <c r="B174" t="s">
+        <v>418</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>162</v>
+      </c>
+      <c r="B175" t="s">
+        <v>420</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>772</v>
+      </c>
+      <c r="B176" t="s">
+        <v>422</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>224</v>
+      </c>
+      <c r="B177" t="s">
+        <v>424</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>227</v>
+      </c>
+      <c r="B178" t="s">
+        <v>426</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>770</v>
+      </c>
+      <c r="B179" t="s">
+        <v>428</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>739</v>
+      </c>
+      <c r="B180" t="s">
+        <v>430</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>785</v>
+      </c>
+      <c r="B181" t="s">
+        <v>431</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>1060</v>
+      </c>
+      <c r="B183" t="s">
+        <v>433</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -1599,4 +5287,140 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>